--- a/data/metadata/datensatzbeschreibung_allgemein.xlsx
+++ b/data/metadata/datensatzbeschreibung_allgemein.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Kunden\Bundesministerium fuer Wirtschaft und Energie\20200812_Corona Ausschreibung\7_Corona-Datenplattform.de\3_Dateien\Datensatzbeschreibungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cinny/GitHub/Map-Tool/data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91FFF19-4802-4204-AF46-2B3C5EF65AAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1E867A-F1FD-8B4D-BF6E-BC8E33FE30F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{627A0596-73DE-4D44-8E08-8998CC6E0E4A}"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="33240" windowHeight="16880" xr2:uid="{627A0596-73DE-4D44-8E08-8998CC6E0E4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Datensatzbeschreibung" sheetId="7" r:id="rId1"/>
@@ -7729,7 +7729,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{9699E6C6-5287-44A8-BF0A-B2BF615D5145}"/>
     <cellStyle name="Standard 3" xfId="2" xr:uid="{C370C50E-B09F-476F-8C09-7439052FDC09}"/>
   </cellStyles>
@@ -7747,7 +7747,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8045,27 +8045,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687CEA63-2878-4BD5-B412-63B250F14179}">
   <dimension ref="A1:K790"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E145" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J169" sqref="J169"/>
+    <sheetView tabSelected="1" topLeftCell="A736" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A749" sqref="A749:XFD750"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="114.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="95" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="11.5703125" style="5"/>
+    <col min="1" max="1" width="21.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27" style="5" customWidth="1"/>
+    <col min="4" max="4" width="70.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="114.5" style="5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="45.83203125" style="5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="95" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="11.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2140</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>1821</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>1821</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>1821</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>1821</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>101</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>101</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>101</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>101</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>101</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>101</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>101</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>101</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>101</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>101</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>101</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>101</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>101</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>101</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>101</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>101</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>101</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>101</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>101</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>101</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>101</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>101</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>101</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>101</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>101</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>101</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>101</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>101</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>101</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>101</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>101</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>101</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>101</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>101</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>101</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>101</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>101</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>101</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>101</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>847</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>847</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>847</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>847</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>847</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>847</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>847</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>847</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>847</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>847</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>847</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>847</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>847</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>847</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>847</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>847</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>847</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>847</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>847</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>847</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>847</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>847</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>847</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>847</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>847</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>847</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>847</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>847</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>847</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>847</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>847</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>847</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>847</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>847</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>847</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>847</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>847</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>847</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>847</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>847</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>847</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>847</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>847</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>847</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>847</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>847</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>847</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>847</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>847</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>847</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>847</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>847</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>847</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>847</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>847</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>847</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>847</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>847</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>847</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>847</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>847</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>847</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>847</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>847</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>847</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>847</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>847</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>847</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>847</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>847</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>51</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>51</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>51</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>51</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>51</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>51</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>51</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>51</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>51</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>51</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>51</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>51</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
         <v>51</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>51</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>51</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>51</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>51</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>51</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>51</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>51</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
         <v>51</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>51</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
         <v>51</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
         <v>51</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>51</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>51</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
         <v>51</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>51</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>51</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>51</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>51</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
         <v>8</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
         <v>8</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
         <v>8</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
         <v>8</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
         <v>8</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
         <v>8</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>8</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
         <v>8</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
         <v>8</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>8</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
         <v>8</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
         <v>8</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
         <v>8</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>8</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
         <v>8</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
         <v>8</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
         <v>8</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="10" t="s">
         <v>8</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
         <v>8</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
         <v>8</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
         <v>8</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
         <v>8</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
         <v>8</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
         <v>8</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>8</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
         <v>8</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
         <v>8</v>
       </c>
@@ -14085,7 +14085,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
         <v>8</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
         <v>8</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
         <v>8</v>
       </c>
@@ -14190,7 +14190,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>8</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>8</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
         <v>8</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>8</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>8</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
         <v>8</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>8</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
         <v>8</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
         <v>8</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
         <v>8</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
         <v>8</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
         <v>8</v>
       </c>
@@ -14610,7 +14610,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
         <v>8</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
         <v>8</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
         <v>8</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>8</v>
       </c>
@@ -14750,7 +14750,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
         <v>8</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
         <v>8</v>
       </c>
@@ -14820,7 +14820,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="10" t="s">
         <v>8</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
         <v>8</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="10" t="s">
         <v>8</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="10" t="s">
         <v>8</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="10" t="s">
         <v>8</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="10" t="s">
         <v>8</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="10" t="s">
         <v>8</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="10" t="s">
         <v>8</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="10" t="s">
         <v>8</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="10" t="s">
         <v>8</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="10" t="s">
         <v>8</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="10" t="s">
         <v>8</v>
       </c>
@@ -15240,7 +15240,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="9" t="s">
         <v>8</v>
       </c>
@@ -15275,7 +15275,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="9" t="s">
         <v>8</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>8</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="9" t="s">
         <v>8</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
         <v>8</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="9" t="s">
         <v>8</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="9" t="s">
         <v>8</v>
       </c>
@@ -15485,7 +15485,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="9" t="s">
         <v>8</v>
       </c>
@@ -15520,7 +15520,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="9" t="s">
         <v>8</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="10" t="s">
         <v>8</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="10" t="s">
         <v>8</v>
       </c>
@@ -15625,7 +15625,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="10" t="s">
         <v>8</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="10" t="s">
         <v>8</v>
       </c>
@@ -15695,7 +15695,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="10" t="s">
         <v>8</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="10" t="s">
         <v>8</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="10" t="s">
         <v>8</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="10" t="s">
         <v>8</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="10" t="s">
         <v>8</v>
       </c>
@@ -15870,7 +15870,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="10" t="s">
         <v>8</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="10" t="s">
         <v>8</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="10" t="s">
         <v>8</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="10" t="s">
         <v>8</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="10" t="s">
         <v>8</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="10" t="s">
         <v>8</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" ht="176" x14ac:dyDescent="0.2">
       <c r="A230" s="10" t="s">
         <v>8</v>
       </c>
@@ -16115,7 +16115,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="9" t="s">
         <v>42</v>
       </c>
@@ -16150,7 +16150,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
         <v>42</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="9" t="s">
         <v>42</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="9" t="s">
         <v>42</v>
       </c>
@@ -16255,7 +16255,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="9" t="s">
         <v>42</v>
       </c>
@@ -16290,7 +16290,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>42</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
         <v>42</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
         <v>42</v>
       </c>
@@ -16395,7 +16395,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
         <v>42</v>
       </c>
@@ -16430,7 +16430,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="9" t="s">
         <v>42</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="9" t="s">
         <v>42</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="9" t="s">
         <v>42</v>
       </c>
@@ -16535,7 +16535,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="9" t="s">
         <v>42</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="9" t="s">
         <v>42</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="9" t="s">
         <v>42</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="9" t="s">
         <v>42</v>
       </c>
@@ -16675,7 +16675,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="9" t="s">
         <v>42</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="9" t="s">
         <v>42</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="9" t="s">
         <v>42</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="9" t="s">
         <v>42</v>
       </c>
@@ -16815,7 +16815,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="9" t="s">
         <v>42</v>
       </c>
@@ -16850,7 +16850,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="9" t="s">
         <v>42</v>
       </c>
@@ -16885,7 +16885,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="9" t="s">
         <v>42</v>
       </c>
@@ -16920,7 +16920,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="9" t="s">
         <v>42</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="9" t="s">
         <v>42</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="9" t="s">
         <v>42</v>
       </c>
@@ -17025,7 +17025,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="9" t="s">
         <v>42</v>
       </c>
@@ -17060,7 +17060,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="9" t="s">
         <v>42</v>
       </c>
@@ -17095,7 +17095,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="9" t="s">
         <v>42</v>
       </c>
@@ -17130,7 +17130,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="9" t="s">
         <v>42</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="9" t="s">
         <v>42</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="9" t="s">
         <v>42</v>
       </c>
@@ -17235,7 +17235,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="9" t="s">
         <v>42</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="9" t="s">
         <v>42</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="9" t="s">
         <v>42</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="9" t="s">
         <v>42</v>
       </c>
@@ -17375,7 +17375,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="9" t="s">
         <v>42</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="9" t="s">
         <v>42</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="9" t="s">
         <v>42</v>
       </c>
@@ -17480,7 +17480,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="9" t="s">
         <v>42</v>
       </c>
@@ -17515,7 +17515,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="9" t="s">
         <v>42</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="9" t="s">
         <v>42</v>
       </c>
@@ -17585,7 +17585,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="9" t="s">
         <v>42</v>
       </c>
@@ -17620,7 +17620,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="9" t="s">
         <v>42</v>
       </c>
@@ -17655,7 +17655,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="9" t="s">
         <v>42</v>
       </c>
@@ -17690,7 +17690,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="9" t="s">
         <v>42</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="9" t="s">
         <v>42</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="9" t="s">
         <v>42</v>
       </c>
@@ -17795,7 +17795,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="9" t="s">
         <v>42</v>
       </c>
@@ -17830,7 +17830,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="9" t="s">
         <v>42</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="9" t="s">
         <v>42</v>
       </c>
@@ -17900,7 +17900,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="9" t="s">
         <v>42</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="9" t="s">
         <v>42</v>
       </c>
@@ -17970,7 +17970,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="9" t="s">
         <v>42</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="9" t="s">
         <v>42</v>
       </c>
@@ -18040,7 +18040,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="9" t="s">
         <v>42</v>
       </c>
@@ -18075,7 +18075,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="9" t="s">
         <v>42</v>
       </c>
@@ -18110,7 +18110,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="9" t="s">
         <v>42</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A289" s="9" t="s">
         <v>42</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="9" t="s">
         <v>42</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="9" t="s">
         <v>42</v>
       </c>
@@ -18250,7 +18250,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="9" t="s">
         <v>42</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="9" t="s">
         <v>42</v>
       </c>
@@ -18320,7 +18320,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="9" t="s">
         <v>42</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="9" t="s">
         <v>42</v>
       </c>
@@ -18390,7 +18390,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="9" t="s">
         <v>42</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="9" t="s">
         <v>42</v>
       </c>
@@ -18460,7 +18460,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="9" t="s">
         <v>42</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="9" t="s">
         <v>42</v>
       </c>
@@ -18530,7 +18530,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="9" t="s">
         <v>42</v>
       </c>
@@ -18565,7 +18565,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="9" t="s">
         <v>838</v>
       </c>
@@ -18600,7 +18600,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="9" t="s">
         <v>838</v>
       </c>
@@ -18635,7 +18635,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="9" t="s">
         <v>838</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="9" t="s">
         <v>838</v>
       </c>
@@ -18705,7 +18705,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="9" t="s">
         <v>838</v>
       </c>
@@ -18740,7 +18740,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="9" t="s">
         <v>838</v>
       </c>
@@ -18775,7 +18775,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="9" t="s">
         <v>838</v>
       </c>
@@ -18810,7 +18810,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="9" t="s">
         <v>838</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="9" t="s">
         <v>838</v>
       </c>
@@ -18880,7 +18880,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="9" t="s">
         <v>838</v>
       </c>
@@ -18915,7 +18915,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="9" t="s">
         <v>838</v>
       </c>
@@ -18950,7 +18950,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="9" t="s">
         <v>838</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="9" t="s">
         <v>838</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="9" t="s">
         <v>838</v>
       </c>
@@ -19055,7 +19055,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="9" t="s">
         <v>838</v>
       </c>
@@ -19090,7 +19090,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="9" t="s">
         <v>838</v>
       </c>
@@ -19125,7 +19125,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="9" t="s">
         <v>838</v>
       </c>
@@ -19160,7 +19160,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="9" t="s">
         <v>838</v>
       </c>
@@ -19195,7 +19195,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="9" t="s">
         <v>838</v>
       </c>
@@ -19230,7 +19230,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="9" t="s">
         <v>838</v>
       </c>
@@ -19265,7 +19265,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="9" t="s">
         <v>838</v>
       </c>
@@ -19300,7 +19300,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" s="9" t="s">
         <v>838</v>
       </c>
@@ -19335,7 +19335,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="9" t="s">
         <v>838</v>
       </c>
@@ -19370,7 +19370,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="9" t="s">
         <v>838</v>
       </c>
@@ -19405,7 +19405,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="9" t="s">
         <v>838</v>
       </c>
@@ -19440,7 +19440,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="9" t="s">
         <v>838</v>
       </c>
@@ -19475,7 +19475,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="9" t="s">
         <v>838</v>
       </c>
@@ -19510,7 +19510,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" s="9" t="s">
         <v>838</v>
       </c>
@@ -19545,7 +19545,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="9" t="s">
         <v>838</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="9" t="s">
         <v>838</v>
       </c>
@@ -19615,7 +19615,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="9" t="s">
         <v>838</v>
       </c>
@@ -19650,7 +19650,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="9" t="s">
         <v>838</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="9" t="s">
         <v>838</v>
       </c>
@@ -19720,7 +19720,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="9" t="s">
         <v>838</v>
       </c>
@@ -19755,7 +19755,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="9" t="s">
         <v>838</v>
       </c>
@@ -19790,7 +19790,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="9" t="s">
         <v>838</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="9" t="s">
         <v>838</v>
       </c>
@@ -19860,7 +19860,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="9" t="s">
         <v>838</v>
       </c>
@@ -19895,7 +19895,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="9" t="s">
         <v>838</v>
       </c>
@@ -19930,7 +19930,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="9" t="s">
         <v>838</v>
       </c>
@@ -19965,7 +19965,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="9" t="s">
         <v>838</v>
       </c>
@@ -20000,7 +20000,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="9" t="s">
         <v>838</v>
       </c>
@@ -20035,7 +20035,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="9" t="s">
         <v>838</v>
       </c>
@@ -20070,7 +20070,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="9" t="s">
         <v>838</v>
       </c>
@@ -20105,7 +20105,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="9" t="s">
         <v>838</v>
       </c>
@@ -20140,7 +20140,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="9" t="s">
         <v>838</v>
       </c>
@@ -20175,7 +20175,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="9" t="s">
         <v>838</v>
       </c>
@@ -20210,7 +20210,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="9" t="s">
         <v>838</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="9" t="s">
         <v>838</v>
       </c>
@@ -20280,7 +20280,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="9" t="s">
         <v>838</v>
       </c>
@@ -20315,7 +20315,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="9" t="s">
         <v>838</v>
       </c>
@@ -20350,7 +20350,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="9" t="s">
         <v>838</v>
       </c>
@@ -20385,7 +20385,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" s="9" t="s">
         <v>838</v>
       </c>
@@ -20420,7 +20420,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" s="9" t="s">
         <v>838</v>
       </c>
@@ -20455,7 +20455,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" s="9" t="s">
         <v>838</v>
       </c>
@@ -20490,7 +20490,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="9" t="s">
         <v>838</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" s="9" t="s">
         <v>838</v>
       </c>
@@ -20560,7 +20560,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="9" t="s">
         <v>838</v>
       </c>
@@ -20595,7 +20595,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" s="9" t="s">
         <v>838</v>
       </c>
@@ -20630,7 +20630,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" s="9" t="s">
         <v>838</v>
       </c>
@@ -20665,7 +20665,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="9" t="s">
         <v>838</v>
       </c>
@@ -20700,7 +20700,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="9" t="s">
         <v>838</v>
       </c>
@@ -20735,7 +20735,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="9" t="s">
         <v>838</v>
       </c>
@@ -20770,7 +20770,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="9" t="s">
         <v>838</v>
       </c>
@@ -20805,7 +20805,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="10" t="s">
         <v>838</v>
       </c>
@@ -20840,7 +20840,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="10" t="s">
         <v>838</v>
       </c>
@@ -20875,7 +20875,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="10" t="s">
         <v>838</v>
       </c>
@@ -20910,7 +20910,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" s="10" t="s">
         <v>838</v>
       </c>
@@ -20945,7 +20945,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" s="10" t="s">
         <v>838</v>
       </c>
@@ -20980,7 +20980,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" s="10" t="s">
         <v>838</v>
       </c>
@@ -21015,7 +21015,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" s="10" t="s">
         <v>838</v>
       </c>
@@ -21050,7 +21050,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" s="9" t="s">
         <v>59</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" s="9" t="s">
         <v>59</v>
       </c>
@@ -21120,7 +21120,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" s="9" t="s">
         <v>59</v>
       </c>
@@ -21155,7 +21155,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" s="9" t="s">
         <v>59</v>
       </c>
@@ -21190,7 +21190,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" s="9" t="s">
         <v>59</v>
       </c>
@@ -21225,7 +21225,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" s="9" t="s">
         <v>59</v>
       </c>
@@ -21260,7 +21260,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" s="9" t="s">
         <v>59</v>
       </c>
@@ -21295,7 +21295,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" s="9" t="s">
         <v>59</v>
       </c>
@@ -21330,7 +21330,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" s="9" t="s">
         <v>59</v>
       </c>
@@ -21365,7 +21365,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" s="9" t="s">
         <v>59</v>
       </c>
@@ -21400,7 +21400,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" s="9" t="s">
         <v>59</v>
       </c>
@@ -21435,7 +21435,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="383" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" s="9" t="s">
         <v>59</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="384" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A384" s="9" t="s">
         <v>59</v>
       </c>
@@ -21505,7 +21505,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="385" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="9" t="s">
         <v>59</v>
       </c>
@@ -21540,7 +21540,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="386" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="9" t="s">
         <v>59</v>
       </c>
@@ -21575,7 +21575,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="387" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="9" t="s">
         <v>59</v>
       </c>
@@ -21610,7 +21610,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="388" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="9" t="s">
         <v>59</v>
       </c>
@@ -21645,7 +21645,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="389" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="9" t="s">
         <v>59</v>
       </c>
@@ -21680,7 +21680,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="390" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="9" t="s">
         <v>59</v>
       </c>
@@ -21715,7 +21715,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="391" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="9" t="s">
         <v>59</v>
       </c>
@@ -21750,7 +21750,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="392" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="9" t="s">
         <v>59</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="393" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="9" t="s">
         <v>59</v>
       </c>
@@ -21820,7 +21820,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="394" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="9" t="s">
         <v>59</v>
       </c>
@@ -21855,7 +21855,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="395" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="9" t="s">
         <v>59</v>
       </c>
@@ -21890,7 +21890,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="396" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="9" t="s">
         <v>59</v>
       </c>
@@ -21925,7 +21925,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="397" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="9" t="s">
         <v>59</v>
       </c>
@@ -21960,7 +21960,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="398" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="9" t="s">
         <v>59</v>
       </c>
@@ -21995,7 +21995,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="399" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="9" t="s">
         <v>59</v>
       </c>
@@ -22030,7 +22030,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="400" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="9" t="s">
         <v>59</v>
       </c>
@@ -22065,7 +22065,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="401" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="9" t="s">
         <v>59</v>
       </c>
@@ -22100,7 +22100,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="402" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="9" t="s">
         <v>59</v>
       </c>
@@ -22135,7 +22135,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="403" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="9" t="s">
         <v>59</v>
       </c>
@@ -22170,7 +22170,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="404" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="9" t="s">
         <v>59</v>
       </c>
@@ -22205,7 +22205,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" s="10" t="s">
         <v>848</v>
       </c>
@@ -22240,7 +22240,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" s="10" t="s">
         <v>848</v>
       </c>
@@ -22275,7 +22275,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" s="10" t="s">
         <v>848</v>
       </c>
@@ -22310,7 +22310,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" s="10" t="s">
         <v>848</v>
       </c>
@@ -22345,7 +22345,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" s="10" t="s">
         <v>848</v>
       </c>
@@ -22380,7 +22380,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="10" t="s">
         <v>848</v>
       </c>
@@ -22415,7 +22415,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="10" t="s">
         <v>848</v>
       </c>
@@ -22450,7 +22450,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="10" t="s">
         <v>848</v>
       </c>
@@ -22485,7 +22485,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="10" t="s">
         <v>848</v>
       </c>
@@ -22520,7 +22520,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="10" t="s">
         <v>848</v>
       </c>
@@ -22555,7 +22555,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="10" t="s">
         <v>848</v>
       </c>
@@ -22590,7 +22590,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="10" t="s">
         <v>848</v>
       </c>
@@ -22625,7 +22625,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="10" t="s">
         <v>848</v>
       </c>
@@ -22660,7 +22660,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" s="9" t="s">
         <v>81</v>
       </c>
@@ -22695,7 +22695,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" s="9" t="s">
         <v>81</v>
       </c>
@@ -22730,7 +22730,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" s="9" t="s">
         <v>81</v>
       </c>
@@ -22765,7 +22765,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" s="9" t="s">
         <v>81</v>
       </c>
@@ -22800,7 +22800,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" s="9" t="s">
         <v>81</v>
       </c>
@@ -22835,7 +22835,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="9" t="s">
         <v>81</v>
       </c>
@@ -22870,7 +22870,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" s="9" t="s">
         <v>81</v>
       </c>
@@ -22905,7 +22905,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" s="9" t="s">
         <v>81</v>
       </c>
@@ -22940,7 +22940,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" s="9" t="s">
         <v>81</v>
       </c>
@@ -22975,7 +22975,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="9" t="s">
         <v>81</v>
       </c>
@@ -23010,7 +23010,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="9" t="s">
         <v>81</v>
       </c>
@@ -23045,7 +23045,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="9" t="s">
         <v>81</v>
       </c>
@@ -23080,7 +23080,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="9" t="s">
         <v>81</v>
       </c>
@@ -23115,7 +23115,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="9" t="s">
         <v>81</v>
       </c>
@@ -23150,7 +23150,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="9" t="s">
         <v>81</v>
       </c>
@@ -23185,7 +23185,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="9" t="s">
         <v>81</v>
       </c>
@@ -23220,7 +23220,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="9" t="s">
         <v>81</v>
       </c>
@@ -23255,7 +23255,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="9" t="s">
         <v>81</v>
       </c>
@@ -23290,7 +23290,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="9" t="s">
         <v>81</v>
       </c>
@@ -23325,7 +23325,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="9" t="s">
         <v>81</v>
       </c>
@@ -23360,7 +23360,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="9" t="s">
         <v>81</v>
       </c>
@@ -23395,7 +23395,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A439" s="9" t="s">
         <v>81</v>
       </c>
@@ -23430,7 +23430,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="9" t="s">
         <v>81</v>
       </c>
@@ -23465,7 +23465,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="9" t="s">
         <v>81</v>
       </c>
@@ -23500,7 +23500,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="9" t="s">
         <v>81</v>
       </c>
@@ -23535,7 +23535,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="9" t="s">
         <v>81</v>
       </c>
@@ -23570,7 +23570,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="9" t="s">
         <v>81</v>
       </c>
@@ -23605,7 +23605,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="9" t="s">
         <v>81</v>
       </c>
@@ -23640,7 +23640,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="9" t="s">
         <v>81</v>
       </c>
@@ -23675,7 +23675,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="9" t="s">
         <v>81</v>
       </c>
@@ -23710,7 +23710,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="9" t="s">
         <v>81</v>
       </c>
@@ -23745,7 +23745,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="9" t="s">
         <v>81</v>
       </c>
@@ -23780,7 +23780,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="9" t="s">
         <v>81</v>
       </c>
@@ -23815,7 +23815,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="9" t="s">
         <v>81</v>
       </c>
@@ -23850,7 +23850,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452" s="9" t="s">
         <v>81</v>
       </c>
@@ -23885,7 +23885,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453" s="9" t="s">
         <v>81</v>
       </c>
@@ -23920,7 +23920,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454" s="9" t="s">
         <v>81</v>
       </c>
@@ -23955,7 +23955,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455" s="9" t="s">
         <v>81</v>
       </c>
@@ -23990,7 +23990,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456" s="9" t="s">
         <v>81</v>
       </c>
@@ -24025,7 +24025,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457" s="9" t="s">
         <v>81</v>
       </c>
@@ -24060,7 +24060,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458" s="9" t="s">
         <v>81</v>
       </c>
@@ -24095,7 +24095,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A459" s="9" t="s">
         <v>81</v>
       </c>
@@ -24130,7 +24130,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="460" spans="1:11" ht="390" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" ht="365" x14ac:dyDescent="0.2">
       <c r="A460" s="9" t="s">
         <v>81</v>
       </c>
@@ -24165,7 +24165,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" ht="128" x14ac:dyDescent="0.2">
       <c r="A461" s="9" t="s">
         <v>81</v>
       </c>
@@ -24200,7 +24200,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A462" s="9" t="s">
         <v>81</v>
       </c>
@@ -24235,7 +24235,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A463" s="9" t="s">
         <v>81</v>
       </c>
@@ -24270,7 +24270,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="464" spans="1:11" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A464" s="9" t="s">
         <v>81</v>
       </c>
@@ -24305,7 +24305,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="465" spans="1:11" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A465" s="9" t="s">
         <v>81</v>
       </c>
@@ -24340,7 +24340,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="466" spans="1:11" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A466" s="9" t="s">
         <v>81</v>
       </c>
@@ -24375,7 +24375,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="467" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" ht="160" x14ac:dyDescent="0.2">
       <c r="A467" s="9" t="s">
         <v>81</v>
       </c>
@@ -24410,7 +24410,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="468" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A468" s="9" t="s">
         <v>81</v>
       </c>
@@ -24445,7 +24445,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="469" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A469" s="9" t="s">
         <v>81</v>
       </c>
@@ -24480,7 +24480,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="470" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A470" s="9" t="s">
         <v>81</v>
       </c>
@@ -24515,7 +24515,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A471" s="10" t="s">
         <v>866</v>
       </c>
@@ -24550,7 +24550,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A472" s="10" t="s">
         <v>866</v>
       </c>
@@ -24585,7 +24585,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A473" s="10" t="s">
         <v>866</v>
       </c>
@@ -24620,7 +24620,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A474" s="10" t="s">
         <v>866</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A475" s="10" t="s">
         <v>866</v>
       </c>
@@ -24690,7 +24690,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A476" s="10" t="s">
         <v>866</v>
       </c>
@@ -24725,7 +24725,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A477" s="10" t="s">
         <v>866</v>
       </c>
@@ -24760,7 +24760,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A478" s="10" t="s">
         <v>866</v>
       </c>
@@ -24795,7 +24795,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A479" s="10" t="s">
         <v>866</v>
       </c>
@@ -24830,7 +24830,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A480" s="10" t="s">
         <v>866</v>
       </c>
@@ -24865,7 +24865,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A481" s="10" t="s">
         <v>866</v>
       </c>
@@ -24900,7 +24900,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A482" s="10" t="s">
         <v>866</v>
       </c>
@@ -24935,7 +24935,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A483" s="10" t="s">
         <v>866</v>
       </c>
@@ -24970,7 +24970,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A484" s="10" t="s">
         <v>866</v>
       </c>
@@ -25005,7 +25005,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A485" s="10" t="s">
         <v>866</v>
       </c>
@@ -25040,7 +25040,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A486" s="10" t="s">
         <v>866</v>
       </c>
@@ -25075,7 +25075,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A487" s="10" t="s">
         <v>866</v>
       </c>
@@ -25110,7 +25110,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A488" s="10" t="s">
         <v>866</v>
       </c>
@@ -25145,7 +25145,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A489" s="10" t="s">
         <v>866</v>
       </c>
@@ -25180,7 +25180,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A490" s="10" t="s">
         <v>866</v>
       </c>
@@ -25215,7 +25215,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A491" s="10" t="s">
         <v>866</v>
       </c>
@@ -25250,7 +25250,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A492" s="10" t="s">
         <v>866</v>
       </c>
@@ -25285,7 +25285,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A493" s="10" t="s">
         <v>866</v>
       </c>
@@ -25320,7 +25320,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A494" s="9" t="s">
         <v>362</v>
       </c>
@@ -25355,7 +25355,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="9" t="s">
         <v>362</v>
       </c>
@@ -25390,7 +25390,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="9" t="s">
         <v>362</v>
       </c>
@@ -25425,7 +25425,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="9" t="s">
         <v>362</v>
       </c>
@@ -25460,7 +25460,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" s="9" t="s">
         <v>362</v>
       </c>
@@ -25495,7 +25495,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A499" s="9" t="s">
         <v>362</v>
       </c>
@@ -25530,7 +25530,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="9" t="s">
         <v>362</v>
       </c>
@@ -25565,7 +25565,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" s="9" t="s">
         <v>362</v>
       </c>
@@ -25600,7 +25600,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="9" t="s">
         <v>362</v>
       </c>
@@ -25635,7 +25635,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="9" t="s">
         <v>362</v>
       </c>
@@ -25670,7 +25670,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" s="9" t="s">
         <v>362</v>
       </c>
@@ -25705,7 +25705,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A505" s="9" t="s">
         <v>362</v>
       </c>
@@ -25740,7 +25740,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A506" s="9" t="s">
         <v>362</v>
       </c>
@@ -25775,7 +25775,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A507" s="9" t="s">
         <v>362</v>
       </c>
@@ -25810,7 +25810,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A508" s="9" t="s">
         <v>362</v>
       </c>
@@ -25845,7 +25845,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="9" t="s">
         <v>362</v>
       </c>
@@ -25880,7 +25880,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A510" s="9" t="s">
         <v>362</v>
       </c>
@@ -25915,7 +25915,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A511" s="9" t="s">
         <v>362</v>
       </c>
@@ -25950,7 +25950,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="9" t="s">
         <v>362</v>
       </c>
@@ -25985,7 +25985,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A513" s="9" t="s">
         <v>362</v>
       </c>
@@ -26020,7 +26020,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A514" s="9" t="s">
         <v>362</v>
       </c>
@@ -26055,7 +26055,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A515" s="9" t="s">
         <v>362</v>
       </c>
@@ -26090,7 +26090,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A516" s="9" t="s">
         <v>362</v>
       </c>
@@ -26125,7 +26125,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A517" s="9" t="s">
         <v>362</v>
       </c>
@@ -26160,7 +26160,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A518" s="9" t="s">
         <v>362</v>
       </c>
@@ -26195,7 +26195,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A519" s="9" t="s">
         <v>362</v>
       </c>
@@ -26230,7 +26230,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A520" s="9" t="s">
         <v>362</v>
       </c>
@@ -26265,7 +26265,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A521" s="9" t="s">
         <v>362</v>
       </c>
@@ -26300,7 +26300,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A522" s="9" t="s">
         <v>362</v>
       </c>
@@ -26335,7 +26335,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="9" t="s">
         <v>362</v>
       </c>
@@ -26370,7 +26370,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A524" s="9" t="s">
         <v>362</v>
       </c>
@@ -26405,7 +26405,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A525" s="9" t="s">
         <v>362</v>
       </c>
@@ -26440,7 +26440,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A526" s="9" t="s">
         <v>362</v>
       </c>
@@ -26475,7 +26475,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A527" s="9" t="s">
         <v>362</v>
       </c>
@@ -26510,7 +26510,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A528" s="9" t="s">
         <v>362</v>
       </c>
@@ -26545,7 +26545,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A529" s="9" t="s">
         <v>362</v>
       </c>
@@ -26580,7 +26580,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A530" s="9" t="s">
         <v>362</v>
       </c>
@@ -26615,7 +26615,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A531" s="9" t="s">
         <v>362</v>
       </c>
@@ -26650,7 +26650,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" s="9" t="s">
         <v>362</v>
       </c>
@@ -26685,7 +26685,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A533" s="9" t="s">
         <v>362</v>
       </c>
@@ -26720,7 +26720,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A534" s="9" t="s">
         <v>362</v>
       </c>
@@ -26755,7 +26755,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A535" s="9" t="s">
         <v>362</v>
       </c>
@@ -26790,7 +26790,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A536" s="9" t="s">
         <v>362</v>
       </c>
@@ -26825,7 +26825,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A537" s="9" t="s">
         <v>362</v>
       </c>
@@ -26860,7 +26860,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A538" s="9" t="s">
         <v>362</v>
       </c>
@@ -26895,7 +26895,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A539" s="9" t="s">
         <v>362</v>
       </c>
@@ -26930,7 +26930,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A540" s="9" t="s">
         <v>362</v>
       </c>
@@ -26965,7 +26965,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A541" s="9" t="s">
         <v>362</v>
       </c>
@@ -27000,7 +27000,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="9" t="s">
         <v>362</v>
       </c>
@@ -27035,7 +27035,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A543" s="9" t="s">
         <v>362</v>
       </c>
@@ -27070,7 +27070,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A544" s="9" t="s">
         <v>362</v>
       </c>
@@ -27105,7 +27105,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A545" s="9" t="s">
         <v>362</v>
       </c>
@@ -27140,7 +27140,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A546" s="9" t="s">
         <v>362</v>
       </c>
@@ -27175,7 +27175,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A547" s="9" t="s">
         <v>362</v>
       </c>
@@ -27210,7 +27210,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="9" t="s">
         <v>362</v>
       </c>
@@ -27245,7 +27245,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A549" s="9" t="s">
         <v>362</v>
       </c>
@@ -27280,7 +27280,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A550" s="9" t="s">
         <v>362</v>
       </c>
@@ -27315,7 +27315,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A551" s="9" t="s">
         <v>362</v>
       </c>
@@ -27350,7 +27350,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A552" s="9" t="s">
         <v>362</v>
       </c>
@@ -27385,7 +27385,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A553" s="9" t="s">
         <v>362</v>
       </c>
@@ -27420,7 +27420,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A554" s="9" t="s">
         <v>362</v>
       </c>
@@ -27455,7 +27455,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" s="9" t="s">
         <v>362</v>
       </c>
@@ -27490,7 +27490,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A556" s="9" t="s">
         <v>362</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A557" s="9" t="s">
         <v>362</v>
       </c>
@@ -27560,7 +27560,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A558" s="9" t="s">
         <v>362</v>
       </c>
@@ -27595,7 +27595,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A559" s="9" t="s">
         <v>362</v>
       </c>
@@ -27630,7 +27630,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A560" s="9" t="s">
         <v>362</v>
       </c>
@@ -27665,7 +27665,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="9" t="s">
         <v>362</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A562" s="9" t="s">
         <v>362</v>
       </c>
@@ -27735,7 +27735,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A563" s="9" t="s">
         <v>362</v>
       </c>
@@ -27770,7 +27770,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A564" s="9" t="s">
         <v>362</v>
       </c>
@@ -27805,7 +27805,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A565" s="9" t="s">
         <v>362</v>
       </c>
@@ -27840,7 +27840,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A566" s="9" t="s">
         <v>362</v>
       </c>
@@ -27875,7 +27875,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" s="9" t="s">
         <v>362</v>
       </c>
@@ -27910,7 +27910,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A568" s="9" t="s">
         <v>362</v>
       </c>
@@ -27945,7 +27945,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A569" s="9" t="s">
         <v>362</v>
       </c>
@@ -27980,7 +27980,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A570" s="9" t="s">
         <v>362</v>
       </c>
@@ -28015,7 +28015,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A571" s="9" t="s">
         <v>362</v>
       </c>
@@ -28050,7 +28050,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A572" s="9" t="s">
         <v>362</v>
       </c>
@@ -28085,7 +28085,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A573" s="9" t="s">
         <v>362</v>
       </c>
@@ -28120,7 +28120,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A574" s="9" t="s">
         <v>362</v>
       </c>
@@ -28155,7 +28155,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A575" s="9" t="s">
         <v>362</v>
       </c>
@@ -28190,7 +28190,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A576" s="9" t="s">
         <v>362</v>
       </c>
@@ -28225,7 +28225,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A577" s="9" t="s">
         <v>362</v>
       </c>
@@ -28260,7 +28260,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A578" s="9" t="s">
         <v>362</v>
       </c>
@@ -28295,7 +28295,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A579" s="9" t="s">
         <v>362</v>
       </c>
@@ -28330,7 +28330,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A580" s="9" t="s">
         <v>362</v>
       </c>
@@ -28365,7 +28365,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A581" s="9" t="s">
         <v>362</v>
       </c>
@@ -28400,7 +28400,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A582" s="9" t="s">
         <v>362</v>
       </c>
@@ -28435,7 +28435,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A583" s="9" t="s">
         <v>362</v>
       </c>
@@ -28470,7 +28470,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A584" s="9" t="s">
         <v>362</v>
       </c>
@@ -28505,7 +28505,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A585" s="9" t="s">
         <v>362</v>
       </c>
@@ -28540,7 +28540,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A586" s="9" t="s">
         <v>362</v>
       </c>
@@ -28575,7 +28575,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A587" s="9" t="s">
         <v>362</v>
       </c>
@@ -28610,7 +28610,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A588" s="9" t="s">
         <v>362</v>
       </c>
@@ -28645,7 +28645,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A589" s="9" t="s">
         <v>362</v>
       </c>
@@ -28680,7 +28680,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A590" s="9" t="s">
         <v>362</v>
       </c>
@@ -28715,7 +28715,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A591" s="9" t="s">
         <v>362</v>
       </c>
@@ -28750,7 +28750,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A592" s="9" t="s">
         <v>362</v>
       </c>
@@ -28785,7 +28785,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A593" s="9" t="s">
         <v>362</v>
       </c>
@@ -28820,7 +28820,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A594" s="9" t="s">
         <v>362</v>
       </c>
@@ -28855,7 +28855,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A595" s="9" t="s">
         <v>362</v>
       </c>
@@ -28890,7 +28890,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A596" s="9" t="s">
         <v>362</v>
       </c>
@@ -28925,7 +28925,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A597" s="9" t="s">
         <v>362</v>
       </c>
@@ -28960,7 +28960,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A598" s="9" t="s">
         <v>362</v>
       </c>
@@ -28995,7 +28995,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A599" s="9" t="s">
         <v>362</v>
       </c>
@@ -29030,7 +29030,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A600" s="9" t="s">
         <v>362</v>
       </c>
@@ -29065,7 +29065,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A601" s="9" t="s">
         <v>362</v>
       </c>
@@ -29100,7 +29100,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A602" s="9" t="s">
         <v>362</v>
       </c>
@@ -29135,7 +29135,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A603" s="9" t="s">
         <v>362</v>
       </c>
@@ -29170,7 +29170,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A604" s="9" t="s">
         <v>362</v>
       </c>
@@ -29205,7 +29205,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A605" s="10" t="s">
         <v>362</v>
       </c>
@@ -29240,7 +29240,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A606" s="10" t="s">
         <v>362</v>
       </c>
@@ -29275,7 +29275,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A607" s="10" t="s">
         <v>362</v>
       </c>
@@ -29310,7 +29310,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A608" s="10" t="s">
         <v>362</v>
       </c>
@@ -29345,7 +29345,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A609" s="10" t="s">
         <v>362</v>
       </c>
@@ -29380,7 +29380,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A610" s="10" t="s">
         <v>362</v>
       </c>
@@ -29415,7 +29415,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A611" s="10" t="s">
         <v>362</v>
       </c>
@@ -29450,7 +29450,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A612" s="10" t="s">
         <v>362</v>
       </c>
@@ -29485,7 +29485,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A613" s="10" t="s">
         <v>362</v>
       </c>
@@ -29520,7 +29520,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A614" s="10" t="s">
         <v>362</v>
       </c>
@@ -29555,7 +29555,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A615" s="10" t="s">
         <v>362</v>
       </c>
@@ -29590,7 +29590,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A616" s="10" t="s">
         <v>362</v>
       </c>
@@ -29625,7 +29625,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A617" s="10" t="s">
         <v>362</v>
       </c>
@@ -29660,7 +29660,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A618" s="10" t="s">
         <v>362</v>
       </c>
@@ -29695,7 +29695,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A619" s="10" t="s">
         <v>362</v>
       </c>
@@ -29730,7 +29730,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A620" s="10" t="s">
         <v>362</v>
       </c>
@@ -29765,7 +29765,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A621" s="10" t="s">
         <v>362</v>
       </c>
@@ -29800,7 +29800,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A622" s="10" t="s">
         <v>362</v>
       </c>
@@ -29835,7 +29835,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A623" s="10" t="s">
         <v>362</v>
       </c>
@@ -29870,7 +29870,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A624" s="10" t="s">
         <v>362</v>
       </c>
@@ -29905,7 +29905,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A625" s="10" t="s">
         <v>362</v>
       </c>
@@ -29940,7 +29940,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A626" s="10" t="s">
         <v>362</v>
       </c>
@@ -29975,7 +29975,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A627" s="10" t="s">
         <v>362</v>
       </c>
@@ -30010,7 +30010,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A628" s="10" t="s">
         <v>362</v>
       </c>
@@ -30045,7 +30045,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A629" s="10" t="s">
         <v>362</v>
       </c>
@@ -30080,7 +30080,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A630" s="10" t="s">
         <v>362</v>
       </c>
@@ -30115,7 +30115,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A631" s="10" t="s">
         <v>362</v>
       </c>
@@ -30150,7 +30150,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A632" s="10" t="s">
         <v>362</v>
       </c>
@@ -30185,7 +30185,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A633" s="10" t="s">
         <v>362</v>
       </c>
@@ -30220,7 +30220,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A634" s="10" t="s">
         <v>362</v>
       </c>
@@ -30255,7 +30255,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A635" s="10" t="s">
         <v>362</v>
       </c>
@@ -30290,7 +30290,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A636" s="10" t="s">
         <v>362</v>
       </c>
@@ -30325,7 +30325,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A637" s="10" t="s">
         <v>362</v>
       </c>
@@ -30360,7 +30360,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A638" s="10" t="s">
         <v>362</v>
       </c>
@@ -30395,7 +30395,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A639" s="10" t="s">
         <v>362</v>
       </c>
@@ -30430,7 +30430,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A640" s="10" t="s">
         <v>362</v>
       </c>
@@ -30465,7 +30465,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A641" s="10" t="s">
         <v>362</v>
       </c>
@@ -30500,7 +30500,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A642" s="10" t="s">
         <v>362</v>
       </c>
@@ -30535,7 +30535,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A643" s="10" t="s">
         <v>362</v>
       </c>
@@ -30570,7 +30570,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A644" s="10" t="s">
         <v>362</v>
       </c>
@@ -30605,7 +30605,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A645" s="10" t="s">
         <v>362</v>
       </c>
@@ -30640,7 +30640,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A646" s="10" t="s">
         <v>362</v>
       </c>
@@ -30675,7 +30675,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A647" s="10" t="s">
         <v>362</v>
       </c>
@@ -30710,7 +30710,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A648" s="10" t="s">
         <v>362</v>
       </c>
@@ -30745,7 +30745,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A649" s="10" t="s">
         <v>362</v>
       </c>
@@ -30780,7 +30780,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A650" s="10" t="s">
         <v>362</v>
       </c>
@@ -30815,7 +30815,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A651" s="10" t="s">
         <v>362</v>
       </c>
@@ -30850,7 +30850,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A652" s="10" t="s">
         <v>362</v>
       </c>
@@ -30885,7 +30885,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A653" s="10" t="s">
         <v>362</v>
       </c>
@@ -30920,7 +30920,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A654" s="10" t="s">
         <v>362</v>
       </c>
@@ -30955,7 +30955,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A655" s="10" t="s">
         <v>362</v>
       </c>
@@ -30990,7 +30990,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A656" s="10" t="s">
         <v>362</v>
       </c>
@@ -31025,7 +31025,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A657" s="10" t="s">
         <v>362</v>
       </c>
@@ -31060,7 +31060,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A658" s="10" t="s">
         <v>362</v>
       </c>
@@ -31095,7 +31095,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A659" s="10" t="s">
         <v>362</v>
       </c>
@@ -31130,7 +31130,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A660" s="10" t="s">
         <v>362</v>
       </c>
@@ -31165,7 +31165,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A661" s="10" t="s">
         <v>362</v>
       </c>
@@ -31200,7 +31200,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A662" s="10" t="s">
         <v>362</v>
       </c>
@@ -31235,7 +31235,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A663" s="10" t="s">
         <v>362</v>
       </c>
@@ -31270,7 +31270,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A664" s="10" t="s">
         <v>362</v>
       </c>
@@ -31305,7 +31305,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A665" s="10" t="s">
         <v>362</v>
       </c>
@@ -31340,7 +31340,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A666" s="10" t="s">
         <v>362</v>
       </c>
@@ -31375,7 +31375,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A667" s="10" t="s">
         <v>362</v>
       </c>
@@ -31410,7 +31410,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A668" s="10" t="s">
         <v>362</v>
       </c>
@@ -31445,7 +31445,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A669" s="10" t="s">
         <v>362</v>
       </c>
@@ -31480,7 +31480,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A670" s="10" t="s">
         <v>362</v>
       </c>
@@ -31515,7 +31515,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A671" s="10" t="s">
         <v>362</v>
       </c>
@@ -31550,7 +31550,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A672" s="10" t="s">
         <v>362</v>
       </c>
@@ -31585,7 +31585,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A673" s="10" t="s">
         <v>362</v>
       </c>
@@ -31620,7 +31620,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A674" s="10" t="s">
         <v>362</v>
       </c>
@@ -31655,7 +31655,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A675" s="10" t="s">
         <v>362</v>
       </c>
@@ -31690,7 +31690,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A676" s="10" t="s">
         <v>362</v>
       </c>
@@ -31725,7 +31725,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A677" s="10" t="s">
         <v>362</v>
       </c>
@@ -31760,7 +31760,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A678" s="10" t="s">
         <v>362</v>
       </c>
@@ -31795,7 +31795,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A679" s="10" t="s">
         <v>362</v>
       </c>
@@ -31830,7 +31830,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="680" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A680" s="11" t="s">
         <v>362</v>
       </c>
@@ -31865,7 +31865,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A681" s="10" t="s">
         <v>362</v>
       </c>
@@ -31900,7 +31900,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A682" s="10" t="s">
         <v>362</v>
       </c>
@@ -31935,7 +31935,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A683" s="10" t="s">
         <v>362</v>
       </c>
@@ -31970,7 +31970,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A684" s="10" t="s">
         <v>362</v>
       </c>
@@ -32005,7 +32005,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A685" s="10" t="s">
         <v>362</v>
       </c>
@@ -32040,7 +32040,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A686" s="10" t="s">
         <v>362</v>
       </c>
@@ -32075,7 +32075,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A687" s="10" t="s">
         <v>362</v>
       </c>
@@ -32110,7 +32110,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A688" s="10" t="s">
         <v>362</v>
       </c>
@@ -32145,7 +32145,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A689" s="10" t="s">
         <v>362</v>
       </c>
@@ -32180,7 +32180,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="690" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A690" s="9" t="s">
         <v>362</v>
       </c>
@@ -32215,7 +32215,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="691" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A691" s="9" t="s">
         <v>362</v>
       </c>
@@ -32250,7 +32250,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="692" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A692" s="9" t="s">
         <v>362</v>
       </c>
@@ -32285,7 +32285,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="693" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A693" s="9" t="s">
         <v>362</v>
       </c>
@@ -32320,7 +32320,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="694" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A694" s="9" t="s">
         <v>362</v>
       </c>
@@ -32355,7 +32355,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="695" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A695" s="9" t="s">
         <v>362</v>
       </c>
@@ -32390,7 +32390,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A696" s="9" t="s">
         <v>43</v>
       </c>
@@ -32425,7 +32425,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A697" s="9" t="s">
         <v>43</v>
       </c>
@@ -32460,7 +32460,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A698" s="9" t="s">
         <v>43</v>
       </c>
@@ -32495,7 +32495,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A699" s="9" t="s">
         <v>43</v>
       </c>
@@ -32530,7 +32530,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A700" s="9" t="s">
         <v>43</v>
       </c>
@@ -32565,7 +32565,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A701" s="9" t="s">
         <v>43</v>
       </c>
@@ -32600,7 +32600,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A702" s="9" t="s">
         <v>43</v>
       </c>
@@ -32635,7 +32635,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A703" s="9" t="s">
         <v>43</v>
       </c>
@@ -32670,7 +32670,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A704" s="9" t="s">
         <v>43</v>
       </c>
@@ -32705,7 +32705,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A705" s="9" t="s">
         <v>43</v>
       </c>
@@ -32740,7 +32740,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A706" s="9" t="s">
         <v>43</v>
       </c>
@@ -32775,7 +32775,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A707" s="9" t="s">
         <v>43</v>
       </c>
@@ -32810,7 +32810,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A708" s="9" t="s">
         <v>43</v>
       </c>
@@ -32845,7 +32845,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A709" s="9" t="s">
         <v>43</v>
       </c>
@@ -32880,7 +32880,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A710" s="9" t="s">
         <v>43</v>
       </c>
@@ -32915,7 +32915,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A711" s="9" t="s">
         <v>43</v>
       </c>
@@ -32950,7 +32950,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A712" s="9" t="s">
         <v>43</v>
       </c>
@@ -32985,7 +32985,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A713" s="9" t="s">
         <v>43</v>
       </c>
@@ -33020,7 +33020,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A714" s="9" t="s">
         <v>43</v>
       </c>
@@ -33055,7 +33055,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A715" s="9" t="s">
         <v>43</v>
       </c>
@@ -33090,7 +33090,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A716" s="9" t="s">
         <v>43</v>
       </c>
@@ -33125,7 +33125,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A717" s="9" t="s">
         <v>43</v>
       </c>
@@ -33160,7 +33160,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A718" s="9" t="s">
         <v>43</v>
       </c>
@@ -33195,7 +33195,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A719" s="9" t="s">
         <v>43</v>
       </c>
@@ -33230,7 +33230,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A720" s="9" t="s">
         <v>43</v>
       </c>
@@ -33265,7 +33265,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A721" s="9" t="s">
         <v>43</v>
       </c>
@@ -33300,7 +33300,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A722" s="9" t="s">
         <v>43</v>
       </c>
@@ -33335,7 +33335,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A723" s="9" t="s">
         <v>43</v>
       </c>
@@ -33370,7 +33370,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="724" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A724" s="9" t="s">
         <v>43</v>
       </c>
@@ -33405,7 +33405,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="725" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A725" s="9" t="s">
         <v>43</v>
       </c>
@@ -33440,7 +33440,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="726" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A726" s="9" t="s">
         <v>43</v>
       </c>
@@ -33475,7 +33475,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="727" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A727" s="9" t="s">
         <v>43</v>
       </c>
@@ -33510,7 +33510,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="728" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A728" s="9" t="s">
         <v>43</v>
       </c>
@@ -33545,7 +33545,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="729" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A729" s="9" t="s">
         <v>43</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="730" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A730" s="9" t="s">
         <v>43</v>
       </c>
@@ -33615,7 +33615,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="731" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A731" s="9" t="s">
         <v>43</v>
       </c>
@@ -33650,7 +33650,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="732" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A732" s="9" t="s">
         <v>43</v>
       </c>
@@ -33685,7 +33685,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="733" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A733" s="9" t="s">
         <v>43</v>
       </c>
@@ -33720,7 +33720,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="734" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A734" s="9" t="s">
         <v>43</v>
       </c>
@@ -33755,7 +33755,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="735" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A735" s="9" t="s">
         <v>43</v>
       </c>
@@ -33790,7 +33790,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="736" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A736" s="9" t="s">
         <v>43</v>
       </c>
@@ -33825,7 +33825,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="737" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A737" s="9" t="s">
         <v>43</v>
       </c>
@@ -33860,7 +33860,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="738" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A738" s="9" t="s">
         <v>43</v>
       </c>
@@ -33895,7 +33895,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="739" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A739" s="9" t="s">
         <v>43</v>
       </c>
@@ -33930,7 +33930,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="740" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A740" s="9" t="s">
         <v>43</v>
       </c>
@@ -33965,7 +33965,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="741" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A741" s="9" t="s">
         <v>43</v>
       </c>
@@ -34000,7 +34000,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="742" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A742" s="9" t="s">
         <v>43</v>
       </c>
@@ -34035,7 +34035,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="743" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A743" s="9" t="s">
         <v>43</v>
       </c>
@@ -34070,7 +34070,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="744" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A744" s="9" t="s">
         <v>43</v>
       </c>
@@ -34105,7 +34105,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="745" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A745" s="9" t="s">
         <v>43</v>
       </c>
@@ -34140,7 +34140,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="746" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A746" s="9" t="s">
         <v>43</v>
       </c>
@@ -34175,7 +34175,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="747" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A747" s="9" t="s">
         <v>43</v>
       </c>
@@ -34210,7 +34210,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="748" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A748" s="9" t="s">
         <v>43</v>
       </c>
@@ -34245,7 +34245,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A749" s="9" t="s">
         <v>43</v>
       </c>
@@ -34280,7 +34280,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A750" s="9" t="s">
         <v>43</v>
       </c>
@@ -34315,7 +34315,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A751" s="9" t="s">
         <v>43</v>
       </c>
@@ -34350,7 +34350,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A752" s="9" t="s">
         <v>43</v>
       </c>
@@ -34385,7 +34385,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A753" s="9" t="s">
         <v>43</v>
       </c>
@@ -34420,7 +34420,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A754" s="9" t="s">
         <v>43</v>
       </c>
@@ -34455,7 +34455,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A755" s="10" t="s">
         <v>43</v>
       </c>
@@ -34490,7 +34490,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A756" s="9" t="s">
         <v>43</v>
       </c>
@@ -34525,7 +34525,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A757" s="9" t="s">
         <v>43</v>
       </c>
@@ -34560,7 +34560,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A758" s="9" t="s">
         <v>43</v>
       </c>
@@ -34595,7 +34595,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A759" s="9" t="s">
         <v>43</v>
       </c>
@@ -34630,7 +34630,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A760" s="9" t="s">
         <v>43</v>
       </c>
@@ -34665,7 +34665,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A761" s="9" t="s">
         <v>43</v>
       </c>
@@ -34700,7 +34700,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A762" s="9" t="s">
         <v>43</v>
       </c>
@@ -34735,7 +34735,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A763" s="9" t="s">
         <v>43</v>
       </c>
@@ -34770,7 +34770,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A764" s="9" t="s">
         <v>43</v>
       </c>
@@ -34805,7 +34805,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A765" s="10" t="s">
         <v>43</v>
       </c>
@@ -34840,7 +34840,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A766" s="10" t="s">
         <v>43</v>
       </c>
@@ -34875,7 +34875,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A767" s="10" t="s">
         <v>43</v>
       </c>
@@ -34910,7 +34910,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A768" s="10" t="s">
         <v>43</v>
       </c>
@@ -34945,7 +34945,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A769" s="9" t="s">
         <v>43</v>
       </c>
@@ -34980,7 +34980,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A770" s="9" t="s">
         <v>43</v>
       </c>
@@ -35015,7 +35015,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A771" s="9" t="s">
         <v>43</v>
       </c>
@@ -35050,7 +35050,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A772" s="9" t="s">
         <v>43</v>
       </c>
@@ -35085,7 +35085,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A773" s="9" t="s">
         <v>43</v>
       </c>
@@ -35120,7 +35120,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A774" s="9" t="s">
         <v>43</v>
       </c>
@@ -35155,7 +35155,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A775" s="9" t="s">
         <v>43</v>
       </c>
@@ -35190,7 +35190,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A776" s="9" t="s">
         <v>43</v>
       </c>
@@ -35225,7 +35225,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A777" s="9" t="s">
         <v>43</v>
       </c>
@@ -35260,7 +35260,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A778" s="9" t="s">
         <v>43</v>
       </c>
@@ -35295,7 +35295,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A779" s="9" t="s">
         <v>43</v>
       </c>
@@ -35330,7 +35330,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A780" s="9" t="s">
         <v>2303</v>
       </c>
@@ -35365,7 +35365,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A781" s="9" t="s">
         <v>2303</v>
       </c>
@@ -35400,7 +35400,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A782" s="9" t="s">
         <v>2303</v>
       </c>
@@ -35435,7 +35435,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A783" s="9" t="s">
         <v>2303</v>
       </c>
@@ -35470,7 +35470,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A784" s="9" t="s">
         <v>2303</v>
       </c>
@@ -35505,7 +35505,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A785" s="9" t="s">
         <v>2303</v>
       </c>
@@ -35540,7 +35540,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A786" s="23"/>
       <c r="B786" s="22"/>
       <c r="C786" s="22"/>
@@ -35553,12 +35553,12 @@
       <c r="J786" s="23"/>
       <c r="K786" s="29"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A787" s="28" t="s">
         <v>1992</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A790" s="22"/>
       <c r="B790" s="22"/>
       <c r="C790" s="22"/>
